--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_25 8.string(2).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_25 8.string(2).xlsx
@@ -70,6 +70,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561345</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="523875"/>
+          <a:ext cx="5038095" cy="1133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +405,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -370,6 +413,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_25 8.string(2).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_25 8.string(2).xlsx
@@ -13,6 +13,21 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>string 内部有两段存储机制。当字符串的字符数小于 16 时，数据会直接存储在对象内部的数组中，不需要动态申请内存。这样就相当于数据存储在对象本身的 buffer 中。</t>
+  </si>
+  <si>
+    <t>而当字符数大于等于 16 时，就不再使用这种内置存储机制，而是通过动态分配内存的方式来存储数据。</t>
+  </si>
+  <si>
+    <t>linux  g++上又是二倍扩容的模式了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -104,6 +119,196 @@
         <a:xfrm>
           <a:off x="1695450" y="523875"/>
           <a:ext cx="5038095" cy="1133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>627673</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="2181225"/>
+          <a:ext cx="7819048" cy="4542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>427855</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725150" y="2514600"/>
+          <a:ext cx="6161905" cy="4000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>83964</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="8162925"/>
+          <a:ext cx="14085714" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>503925</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>123601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="18221325"/>
+          <a:ext cx="7200000" cy="1790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>132089</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="14230350"/>
+          <a:ext cx="10085714" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -402,14 +607,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F41:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="U90" sqref="U90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="41" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_25 8.string(2).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_25 8.string(2).xlsx
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F41:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="U90" sqref="U90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="U104" sqref="U104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
